--- a/adminTools/Params.xlsx
+++ b/adminTools/Params.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\Rink\projects\gas\adminTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3427C-5B64-4DAE-A5FC-13DD9F3AE808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2E16CD-BAF9-4BFB-A866-E699AF2A1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3075" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3075" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
+    <sheet name="ExpireEntities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -40,12 +41,39 @@
     <t>domain.local</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>SerialNumber</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>ExpireDate</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>ExecuteDate</t>
+  </si>
+  <si>
+    <t>PrimaryMail</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SuspendAccount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SuspendDevice</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -77,8 +105,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,8 +126,14 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,15 +141,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -329,7 +390,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -374,4 +435,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB0C4AC-5A96-41FB-83AF-BB8A8AA2DF7C}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45641</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/adminTools/Params.xlsx
+++ b/adminTools/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\Rink\projects\gas\adminTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2E16CD-BAF9-4BFB-A866-E699AF2A1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9AD12C-AFE7-4166-AD97-913DE445449E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3075" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3075" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -61,12 +61,26 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>Error</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>SuspendAccount</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SuspendDevice</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DeprovisoningDevice</t>
+  </si>
+  <si>
+    <t>RebootDevice</t>
+  </si>
+  <si>
+    <t>WipeUsers</t>
+  </si>
+  <si>
+    <t>RemotePowerWash</t>
   </si>
 </sst>
 </file>
@@ -133,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -141,35 +155,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -390,9 +392,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -439,15 +439,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB0C4AC-5A96-41FB-83AF-BB8A8AA2DF7C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -466,22 +467,61 @@
       <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="C2" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7">
         <v>45627</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="3" spans="1:7">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7">
         <v>45641</v>
       </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
